--- a/static/download/2012/RP1_SAF_2012.xlsx
+++ b/static/download/2012/RP1_SAF_2012.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SAF INDICATORS" sheetId="1" r:id="rId3"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Data source</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -35,7 +38,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Runway Incursions (RI)</t>
@@ -162,8 +165,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -218,7 +221,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -365,135 +369,157 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,16 +529,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -521,20 +550,20 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="17.57"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="13.86"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="12.43"/>
-    <col customWidth="1" min="9" max="9" width="12.71"/>
-    <col customWidth="1" min="10" max="10" width="10.29"/>
-    <col customWidth="1" min="11" max="11" width="9.43"/>
-    <col customWidth="1" min="12" max="16" width="8.43"/>
+    <col customWidth="1" min="1" max="1" width="9.63"/>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="14.13"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="12.13"/>
+    <col customWidth="1" min="7" max="7" width="11.75"/>
+    <col customWidth="1" min="8" max="8" width="10.88"/>
+    <col customWidth="1" min="9" max="9" width="11.13"/>
+    <col customWidth="1" min="10" max="10" width="9.0"/>
+    <col customWidth="1" min="11" max="11" width="8.25"/>
+    <col customWidth="1" min="12" max="16" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -553,7 +582,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -567,22 +598,22 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>41507.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>41274.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -616,21 +647,21 @@
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15"/>
       <c r="L4" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -639,57 +670,57 @@
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="25">
         <v>24.0</v>
@@ -739,7 +770,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="28">
         <v>24.0</v>
@@ -787,7 +818,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="28">
         <v>24.0</v>
@@ -835,7 +866,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="28">
         <v>26.0</v>
@@ -883,7 +914,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="29">
         <v>29.0</v>
@@ -931,7 +962,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="32"/>
@@ -963,7 +994,7 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -994,36 +1025,42 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -1031,13 +1068,13 @@
         <v>41323.0</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
